--- a/ExcelToCs/配置/局外养成配置表.xlsx
+++ b/ExcelToCs/配置/局外养成配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1AC6DC-A02D-4DC8-B74E-F06A5A2EAAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6226DC34-D16F-42E4-AD64-30176D9C4C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="615" windowWidth="20280" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#ExternlGrow" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -363,6 +363,58 @@
   </si>
   <si>
     <t>UI/GrowItem/Grow-14</t>
+  </si>
+  <si>
+    <t>成长类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>growType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡槽数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得初始道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始携带植物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始阳光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒-怪物增多%比例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步体力恢复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -402,12 +454,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -423,9 +481,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -707,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,9 +780,10 @@
     <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="30.125" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,8 +805,11 @@
       <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -767,8 +831,11 @@
       <c r="G2" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,8 +857,11 @@
       <c r="G3" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -813,8 +883,11 @@
       <c r="G4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -836,8 +909,11 @@
       <c r="G5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -859,8 +935,11 @@
       <c r="G6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -882,8 +961,11 @@
       <c r="G7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -905,8 +987,11 @@
       <c r="G8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -928,8 +1013,11 @@
       <c r="G9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -951,8 +1039,11 @@
       <c r="G10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -974,8 +1065,14 @@
       <c r="G11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -997,8 +1094,20 @@
       <c r="G12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1020,8 +1129,18 @@
       <c r="G13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1043,8 +1162,18 @@
       <c r="G14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1066,8 +1195,18 @@
       <c r="G15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1089,8 +1228,18 @@
       <c r="G16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>5</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1111,6 +1260,51 @@
       </c>
       <c r="G17" t="s">
         <v>96</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>6</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>7</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <v>8</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>9</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/局外养成配置表.xlsx
+++ b/ExcelToCs/配置/局外养成配置表.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6226DC34-D16F-42E4-AD64-30176D9C4C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2270B0E-B678-4074-987C-55AA7747E328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#ExternlGrow" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="122">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -414,6 +423,54 @@
   </si>
   <si>
     <t>冲刺次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100|222|444</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_slotNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_addProp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addProp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>222|777|1666</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +538,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -769,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -805,7 +861,7 @@
       <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -831,7 +887,7 @@
       <c r="G2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -857,7 +913,7 @@
       <c r="G3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1068,9 +1124,9 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1097,13 +1153,13 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1132,11 +1188,11 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
         <v>2</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1165,11 +1221,11 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
         <v>3</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1198,11 +1254,11 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
         <v>4</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1231,11 +1287,11 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2">
         <v>5</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1264,46 +1320,94 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
         <v>6</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K18" s="3"/>
-      <c r="L18" s="3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
         <v>7</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
         <v>8</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K20" s="3"/>
-      <c r="L20" s="3">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
         <v>9</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>10</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>109</v>
       </c>
     </row>

--- a/ExcelToCs/配置/局外养成配置表.xlsx
+++ b/ExcelToCs/配置/局外养成配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2270B0E-B678-4074-987C-55AA7747E328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EDCDBF-C3E5-45C6-9475-F1361434F610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -471,6 +471,78 @@
   </si>
   <si>
     <t>222|777|1666</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addPlant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_addPlant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|0|0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addSun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_addSun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|100|200|400|666</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_addMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50|50|100|100|150</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|10|20|20|30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>50|125|300|666|1444</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100|500|1000|3000</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -823,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1395,6 +1467,30 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
         <v>9</v>
@@ -1404,11 +1500,61 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
       <c r="L21" s="2">
         <v>10</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/局外养成配置表.xlsx
+++ b/ExcelToCs/配置/局外养成配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EDCDBF-C3E5-45C6-9475-F1361434F610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF2BC8-56B0-43A2-AA4E-DE0494C96919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="1830" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#ExternlGrow" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="165">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -543,6 +534,99 @@
   </si>
   <si>
     <t>100|500|1000|3000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resurrection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_resurrection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>555|2222</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-20</t>
+  </si>
+  <si>
+    <t>curse</t>
+  </si>
+  <si>
+    <t>grow_curse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100|222|444|888|1444</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|10|10|10|10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow21</t>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-21</t>
+  </si>
+  <si>
+    <t>physicalRecovery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_physicalRecovery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-22</t>
+  </si>
+  <si>
+    <t>跑步体力上限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>111|222|333|444|555</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>runTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_runTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1|1|1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow23</t>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-23</t>
+  </si>
+  <si>
+    <t>200|400|666|1111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|30|40|50|60</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -895,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1528,7 +1612,7 @@
         <v>10</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1555,6 +1639,116 @@
       </c>
       <c r="H22">
         <v>6</v>
+      </c>
+      <c r="L22" s="2">
+        <v>11</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/局外养成配置表.xlsx
+++ b/ExcelToCs/配置/局外养成配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF2BC8-56B0-43A2-AA4E-DE0494C96919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053C5EDB-57AF-4B90-966D-011449A98B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="1830" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#ExternlGrow" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="177">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -627,6 +627,50 @@
   </si>
   <si>
     <t>20|30|40|50|60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺体力恢复</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-24</t>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-25</t>
+  </si>
+  <si>
+    <t>mainmenu_grow24</t>
+  </si>
+  <si>
+    <t>mainmenu_grow25</t>
+  </si>
+  <si>
+    <t>dashRecovery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_dashRecovery</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grow_dashTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>111|444|888|1666</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>111|222|444|666|888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|10|10|20|20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -979,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1672,6 +1716,12 @@
       <c r="H23">
         <v>7</v>
       </c>
+      <c r="L23" s="2">
+        <v>12</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -1749,6 +1799,58 @@
       </c>
       <c r="H26">
         <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelToCs/配置/局外养成配置表.xlsx
+++ b/ExcelToCs/配置/局外养成配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053C5EDB-57AF-4B90-966D-011449A98B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF682C21-B5C4-44E7-85AB-FDC8DD6E23D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="27480" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1995" windowWidth="35220" windowHeight="18885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#ExternlGrow" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="182">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -671,6 +671,26 @@
   </si>
   <si>
     <t>10|10|10|20|20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_CriticalDamage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticaldamage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|4|4|4|5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainmenu_grow26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/GrowItem/Grow-26</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -738,10 +758,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1023,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1324,76 +1345,69 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
+      <c r="B12" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1401,32 +1415,32 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1434,32 +1448,32 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1467,32 +1481,32 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1500,32 +1514,32 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1533,32 +1547,32 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1566,32 +1580,32 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1599,32 +1613,32 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1632,31 +1646,32 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H21">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1664,31 +1679,31 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1696,31 +1711,31 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L23" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1728,25 +1743,31 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="L24" s="2">
+        <v>12</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1754,25 +1775,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1780,25 +1801,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1806,25 +1827,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
         <v>160</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1832,24 +1853,50 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>171</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>172</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>175</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>176</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>170</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>168</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>12</v>
       </c>
     </row>
